--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,17 +459,101 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tipo_acceso (L/LyE)</t>
+          <t>Tipo_acceso</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Ejecutando(SI/NO)</t>
+          <t>Ejecutando</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
           <t>Ingresado_por</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Producción</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>LyE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,147 +420,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Numero_memo</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Tipo_solicitud</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Fecha_memo</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Depto_solicitante</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Resp_memo</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RUT</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Usuario</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tipo_acceso</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ejecutando</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ingresado_por</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Producción</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>LyE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,39 +446,81 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Servidor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Carpeta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Depto_solicitante</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Resp_memo</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RUT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Usuario</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tipo_acceso</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ejecutando</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Ingresado_por</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27/02/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>aAAAAAAAAAAAAAAAAAAAAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BBBBBBBBBBBBBBBBBBBBB</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
